--- a/ValueSet-EncounterClasses.xlsx
+++ b/ValueSet-EncounterClasses.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T00:45:29+00:00</t>
+    <t>2022-03-21T00:46:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
